--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value641.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value641.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237293528191212</v>
+        <v>1.187295913696289</v>
       </c>
       <c r="B1">
-        <v>2.282079163160558</v>
+        <v>2.35515284538269</v>
       </c>
       <c r="C1">
-        <v>3.135495365107503</v>
+        <v>4.012402057647705</v>
       </c>
       <c r="D1">
-        <v>3.630375742119551</v>
+        <v>2.897143363952637</v>
       </c>
       <c r="E1">
-        <v>1.244817022481083</v>
+        <v>1.131458520889282</v>
       </c>
     </row>
   </sheetData>
